--- a/data/pca/factorExposure/factorExposure_2017-01-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.008258246803544322</v>
+        <v>-0.01327834049796955</v>
       </c>
       <c r="C2">
-        <v>0.02950304607085171</v>
+        <v>-0.03991249807822589</v>
       </c>
       <c r="D2">
-        <v>-0.02958754593141562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03196431342291654</v>
+      </c>
+      <c r="E2">
+        <v>-0.05337644497090662</v>
+      </c>
+      <c r="F2">
+        <v>0.01312369070273628</v>
+      </c>
+      <c r="G2">
+        <v>0.1041079450414296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05207547016578949</v>
+        <v>-0.03815287820584538</v>
       </c>
       <c r="C3">
-        <v>0.1055757162833161</v>
+        <v>-0.09156121896885352</v>
       </c>
       <c r="D3">
-        <v>-0.02043853074120387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01883196075868257</v>
+      </c>
+      <c r="E3">
+        <v>-0.1054444265463871</v>
+      </c>
+      <c r="F3">
+        <v>0.01878737180898337</v>
+      </c>
+      <c r="G3">
+        <v>0.1183061570773126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05350807157825298</v>
+        <v>-0.05513338745715161</v>
       </c>
       <c r="C4">
-        <v>0.0634576848034339</v>
+        <v>-0.06126919106277892</v>
       </c>
       <c r="D4">
-        <v>-0.02583684619634141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02680879444592157</v>
+      </c>
+      <c r="E4">
+        <v>-0.05288626660803013</v>
+      </c>
+      <c r="F4">
+        <v>0.00215494026913055</v>
+      </c>
+      <c r="G4">
+        <v>0.09497227145950517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01661303420899187</v>
+        <v>-0.03327173479412073</v>
       </c>
       <c r="C6">
-        <v>0.05423580488297742</v>
+        <v>-0.04398566586588061</v>
       </c>
       <c r="D6">
-        <v>-0.02249348570673116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01976810377691721</v>
+      </c>
+      <c r="E6">
+        <v>-0.05969091795998414</v>
+      </c>
+      <c r="F6">
+        <v>0.006939400447058175</v>
+      </c>
+      <c r="G6">
+        <v>0.08657001769977742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01128691608852955</v>
+        <v>-0.02013848667288435</v>
       </c>
       <c r="C7">
-        <v>0.04111903590308532</v>
+        <v>-0.03625868776971487</v>
       </c>
       <c r="D7">
-        <v>-0.01813309708348837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01541549825604001</v>
+      </c>
+      <c r="E7">
+        <v>-0.02594672092199939</v>
+      </c>
+      <c r="F7">
+        <v>-0.0004594271335377391</v>
+      </c>
+      <c r="G7">
+        <v>0.1256029902407927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.005261149550065811</v>
+        <v>-0.003667299603549798</v>
       </c>
       <c r="C8">
-        <v>0.006003613756849159</v>
+        <v>-0.02061269648115769</v>
       </c>
       <c r="D8">
-        <v>-0.00384479787760415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004857205260329149</v>
+      </c>
+      <c r="E8">
+        <v>-0.03798518609528786</v>
+      </c>
+      <c r="F8">
+        <v>0.004015147785057376</v>
+      </c>
+      <c r="G8">
+        <v>0.07141559947311453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02498670764090307</v>
+        <v>-0.03368089537705341</v>
       </c>
       <c r="C9">
-        <v>0.04050517963888767</v>
+        <v>-0.04502107745006989</v>
       </c>
       <c r="D9">
-        <v>-0.01730586268340831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01767405265782248</v>
+      </c>
+      <c r="E9">
+        <v>-0.03784902709994555</v>
+      </c>
+      <c r="F9">
+        <v>0.001038903839271449</v>
+      </c>
+      <c r="G9">
+        <v>0.1015987143379265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1096523756766067</v>
+        <v>-0.09784846207201237</v>
       </c>
       <c r="C10">
-        <v>-0.1704445815122371</v>
+        <v>0.1900949347129665</v>
       </c>
       <c r="D10">
-        <v>0.05664493676232916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0150907775083614</v>
+      </c>
+      <c r="E10">
+        <v>-0.01700354083599628</v>
+      </c>
+      <c r="F10">
+        <v>0.02679192618070461</v>
+      </c>
+      <c r="G10">
+        <v>0.05315955876207704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03272018026027405</v>
+        <v>-0.03558395782849152</v>
       </c>
       <c r="C11">
-        <v>0.05852043725418975</v>
+        <v>-0.05210871750720923</v>
       </c>
       <c r="D11">
-        <v>-0.005909132957538842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002919762852897355</v>
+      </c>
+      <c r="E11">
+        <v>-0.02614682489825128</v>
+      </c>
+      <c r="F11">
+        <v>-0.01432224331705145</v>
+      </c>
+      <c r="G11">
+        <v>0.07628204304715387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03068366970120511</v>
+        <v>-0.03781775492866341</v>
       </c>
       <c r="C12">
-        <v>0.04915630885150536</v>
+        <v>-0.04636476240676482</v>
       </c>
       <c r="D12">
-        <v>-0.009766187134499994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.007098498675341135</v>
+      </c>
+      <c r="E12">
+        <v>-0.01740875139131182</v>
+      </c>
+      <c r="F12">
+        <v>-0.003912523069221458</v>
+      </c>
+      <c r="G12">
+        <v>0.07531028322991606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.007043807662290833</v>
+        <v>-0.01003034518876322</v>
       </c>
       <c r="C13">
-        <v>0.02629281714803084</v>
+        <v>-0.03519899834176318</v>
       </c>
       <c r="D13">
-        <v>-0.02654976098293229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03008890408245238</v>
+      </c>
+      <c r="E13">
+        <v>-0.06474797574195386</v>
+      </c>
+      <c r="F13">
+        <v>0.01383159708924839</v>
+      </c>
+      <c r="G13">
+        <v>0.1349002264028808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.003435999280000858</v>
+        <v>-0.009065879070010999</v>
       </c>
       <c r="C14">
-        <v>0.02796354307454482</v>
+        <v>-0.02545545404652047</v>
       </c>
       <c r="D14">
-        <v>-0.01253838317519187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01170650248460461</v>
+      </c>
+      <c r="E14">
+        <v>-0.02198883167976497</v>
+      </c>
+      <c r="F14">
+        <v>0.007639152111311672</v>
+      </c>
+      <c r="G14">
+        <v>0.115793538412929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.02810853897530729</v>
+        <v>-0.0339802992807086</v>
       </c>
       <c r="C16">
-        <v>0.04154451121411276</v>
+        <v>-0.04478759799839915</v>
       </c>
       <c r="D16">
-        <v>-0.003579850518173389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002643394975476807</v>
+      </c>
+      <c r="E16">
+        <v>-0.02338638594868648</v>
+      </c>
+      <c r="F16">
+        <v>0.004569309936960959</v>
+      </c>
+      <c r="G16">
+        <v>0.08310507364339743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02153995481150943</v>
+        <v>-0.01827696735924883</v>
       </c>
       <c r="C19">
-        <v>0.05505735248463748</v>
+        <v>-0.04678325726239818</v>
       </c>
       <c r="D19">
-        <v>-0.02027110332479489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02300564574320849</v>
+      </c>
+      <c r="E19">
+        <v>-0.09978404462137065</v>
+      </c>
+      <c r="F19">
+        <v>0.01164445543211571</v>
+      </c>
+      <c r="G19">
+        <v>0.1336692321689822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.006832884312510879</v>
+        <v>-0.01443868512199725</v>
       </c>
       <c r="C20">
-        <v>0.03648087780356517</v>
+        <v>-0.03648933788304579</v>
       </c>
       <c r="D20">
-        <v>-0.01701828555688083</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01607311898798763</v>
+      </c>
+      <c r="E20">
+        <v>-0.04830595434010677</v>
+      </c>
+      <c r="F20">
+        <v>0.02633827900001418</v>
+      </c>
+      <c r="G20">
+        <v>0.1084276107200958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.001545545698051302</v>
+        <v>-0.006665284226695827</v>
       </c>
       <c r="C21">
-        <v>0.03175926282122225</v>
+        <v>-0.0317770250446468</v>
       </c>
       <c r="D21">
-        <v>-0.01985711414772853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02225952723881234</v>
+      </c>
+      <c r="E21">
+        <v>-0.0672092664385978</v>
+      </c>
+      <c r="F21">
+        <v>0.01616895873986261</v>
+      </c>
+      <c r="G21">
+        <v>0.151221311983038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0006846924093867231</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007321244172582784</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002948918245427349</v>
+      </c>
+      <c r="E22">
+        <v>-0.02144175730316262</v>
+      </c>
+      <c r="F22">
+        <v>-0.004104052995331738</v>
+      </c>
+      <c r="G22">
+        <v>0.008999296248151073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006602836962334222</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.00723229214310028</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002934654245740219</v>
+      </c>
+      <c r="E23">
+        <v>-0.02135882586875257</v>
+      </c>
+      <c r="F23">
+        <v>-0.003853152849788642</v>
+      </c>
+      <c r="G23">
+        <v>0.008863307015094538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02211844328041974</v>
+        <v>-0.03026320030684793</v>
       </c>
       <c r="C24">
-        <v>0.04689688500133775</v>
+        <v>-0.04927842748043185</v>
       </c>
       <c r="D24">
-        <v>-0.01032525218022468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007738809322546726</v>
+      </c>
+      <c r="E24">
+        <v>-0.02145935921848243</v>
+      </c>
+      <c r="F24">
+        <v>-0.004413791679415085</v>
+      </c>
+      <c r="G24">
+        <v>0.08445070668765164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.03852954193359034</v>
+        <v>-0.04299080405326661</v>
       </c>
       <c r="C25">
-        <v>0.05901549423936162</v>
+        <v>-0.05634292493745112</v>
       </c>
       <c r="D25">
-        <v>-0.01521362166792191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01187280906507405</v>
+      </c>
+      <c r="E25">
+        <v>-0.01485866711781053</v>
+      </c>
+      <c r="F25">
+        <v>-0.005047422608277817</v>
+      </c>
+      <c r="G25">
+        <v>0.09107676780936637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.00469241623736133</v>
+        <v>-0.0143155198822706</v>
       </c>
       <c r="C26">
-        <v>0.002257516221024422</v>
+        <v>-0.009243797051915317</v>
       </c>
       <c r="D26">
-        <v>-0.02236992110079631</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02464964762219998</v>
+      </c>
+      <c r="E26">
+        <v>-0.01673122904272911</v>
+      </c>
+      <c r="F26">
+        <v>0.005309917772959917</v>
+      </c>
+      <c r="G26">
+        <v>0.08541904055981807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1342103476284792</v>
+        <v>-0.1279326202511349</v>
       </c>
       <c r="C28">
-        <v>-0.201597263983684</v>
+        <v>0.2429295012667707</v>
       </c>
       <c r="D28">
-        <v>0.05290368624264298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006361332511776894</v>
+      </c>
+      <c r="E28">
+        <v>0.001124392982297067</v>
+      </c>
+      <c r="F28">
+        <v>0.02618524431169107</v>
+      </c>
+      <c r="G28">
+        <v>0.05148541571328747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009401193653448185</v>
+        <v>-0.007863084653510818</v>
       </c>
       <c r="C29">
-        <v>0.02277224628507354</v>
+        <v>-0.02185659619425163</v>
       </c>
       <c r="D29">
-        <v>-0.01005484459620852</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01048360642112089</v>
+      </c>
+      <c r="E29">
+        <v>-0.01356712599105099</v>
+      </c>
+      <c r="F29">
+        <v>0.0121283176188231</v>
+      </c>
+      <c r="G29">
+        <v>0.1050715975204288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02840853656880434</v>
+        <v>-0.03786770226908136</v>
       </c>
       <c r="C30">
-        <v>0.07224006515857054</v>
+        <v>-0.06217530643510792</v>
       </c>
       <c r="D30">
-        <v>-0.03366134488472898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0318987165876735</v>
+      </c>
+      <c r="E30">
+        <v>-0.07911729213072365</v>
+      </c>
+      <c r="F30">
+        <v>-0.01584067476290665</v>
+      </c>
+      <c r="G30">
+        <v>0.1211313077141956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03821150069474571</v>
+        <v>-0.0536137648223681</v>
       </c>
       <c r="C31">
-        <v>0.02641087901200828</v>
+        <v>-0.03834882379194179</v>
       </c>
       <c r="D31">
-        <v>-0.00332796627494856</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004441385686880968</v>
+      </c>
+      <c r="E31">
+        <v>-0.003588935062280086</v>
+      </c>
+      <c r="F31">
+        <v>0.03508101270246934</v>
+      </c>
+      <c r="G31">
+        <v>0.09910780776408155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003371848349756721</v>
+        <v>-0.001781127173418461</v>
       </c>
       <c r="C32">
-        <v>0.0354834504964737</v>
+        <v>-0.01916026833599049</v>
       </c>
       <c r="D32">
-        <v>0.000929292601290138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0009121702611466914</v>
+      </c>
+      <c r="E32">
+        <v>-0.052838445592825</v>
+      </c>
+      <c r="F32">
+        <v>-0.02428722146642983</v>
+      </c>
+      <c r="G32">
+        <v>0.07265857010785674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0243402073764973</v>
+        <v>-0.0268122555441352</v>
       </c>
       <c r="C33">
-        <v>0.05376163036183861</v>
+        <v>-0.04701225866917017</v>
       </c>
       <c r="D33">
-        <v>-0.01740391685505559</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01854151892381724</v>
+      </c>
+      <c r="E33">
+        <v>-0.06854334574460091</v>
+      </c>
+      <c r="F33">
+        <v>-0.003451980175497111</v>
+      </c>
+      <c r="G33">
+        <v>0.1580915016110415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04447454565808948</v>
+        <v>-0.04109152182649053</v>
       </c>
       <c r="C34">
-        <v>0.06097409856020846</v>
+        <v>-0.0590958891347446</v>
       </c>
       <c r="D34">
-        <v>0.001972317578929005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.003957588651280349</v>
+      </c>
+      <c r="E34">
+        <v>-0.01976665344865833</v>
+      </c>
+      <c r="F34">
+        <v>-0.01860514651014034</v>
+      </c>
+      <c r="G34">
+        <v>0.07869675740382576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01001084461677338</v>
+        <v>-0.01487621622715253</v>
       </c>
       <c r="C36">
-        <v>0.001263659589339663</v>
+        <v>-0.005361068183797378</v>
       </c>
       <c r="D36">
-        <v>-0.009737729091996425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01385015040792368</v>
+      </c>
+      <c r="E36">
+        <v>-0.02099570426385251</v>
+      </c>
+      <c r="F36">
+        <v>0.007314928499321495</v>
+      </c>
+      <c r="G36">
+        <v>0.09678388703498363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02721807736919985</v>
+        <v>-0.03032439532824847</v>
       </c>
       <c r="C38">
-        <v>0.02404212574272076</v>
+        <v>-0.02418609445976131</v>
       </c>
       <c r="D38">
-        <v>0.007815500964419297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.00625345397660263</v>
+      </c>
+      <c r="E38">
+        <v>-0.02021627746412101</v>
+      </c>
+      <c r="F38">
+        <v>0.01262035717646313</v>
+      </c>
+      <c r="G38">
+        <v>0.09125645919242134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.02297883695764063</v>
+        <v>-0.03617132173008313</v>
       </c>
       <c r="C39">
-        <v>0.08439247528478998</v>
+        <v>-0.07632758093726724</v>
       </c>
       <c r="D39">
-        <v>-0.02094930789029036</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01328412191982263</v>
+      </c>
+      <c r="E39">
+        <v>-0.04021398027585991</v>
+      </c>
+      <c r="F39">
+        <v>-0.01311864639935541</v>
+      </c>
+      <c r="G39">
+        <v>0.09216051293715355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01371469762037705</v>
+        <v>-0.01587677256055379</v>
       </c>
       <c r="C40">
-        <v>0.02185306547906531</v>
+        <v>-0.03347348563788405</v>
       </c>
       <c r="D40">
-        <v>-0.01289823530234491</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0155607164183039</v>
+      </c>
+      <c r="E40">
+        <v>-0.03619534338283596</v>
+      </c>
+      <c r="F40">
+        <v>0.02606047744431309</v>
+      </c>
+      <c r="G40">
+        <v>0.1211736903440044</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0116509936464509</v>
+        <v>-0.01864345936759274</v>
       </c>
       <c r="C41">
-        <v>-0.004123444350917873</v>
+        <v>0.0009830118002605924</v>
       </c>
       <c r="D41">
-        <v>-0.001018285267977911</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005861728030574372</v>
+      </c>
+      <c r="E41">
+        <v>-0.01769603615214045</v>
+      </c>
+      <c r="F41">
+        <v>0.01377761329583535</v>
+      </c>
+      <c r="G41">
+        <v>0.09070176028925829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0081050459736417</v>
+        <v>-0.00518000443354243</v>
       </c>
       <c r="C42">
-        <v>0.03944049772963643</v>
+        <v>-0.0287490239985125</v>
       </c>
       <c r="D42">
-        <v>-0.09642642920423873</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08436447725747509</v>
+      </c>
+      <c r="E42">
+        <v>0.005659708215567691</v>
+      </c>
+      <c r="F42">
+        <v>0.03051879405448497</v>
+      </c>
+      <c r="G42">
+        <v>-0.02093864498934543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0288931977456922</v>
+        <v>-0.0330709753553116</v>
       </c>
       <c r="C43">
-        <v>0.01091359215890846</v>
+        <v>-0.01294858064770208</v>
       </c>
       <c r="D43">
-        <v>-0.001339505385336464</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.00743184082564985</v>
+      </c>
+      <c r="E43">
+        <v>-0.03582053760827567</v>
+      </c>
+      <c r="F43">
+        <v>0.01013355562057019</v>
+      </c>
+      <c r="G43">
+        <v>0.1181112214132909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0125912775840561</v>
+        <v>-0.01328297006405288</v>
       </c>
       <c r="C44">
-        <v>0.05512752198916406</v>
+        <v>-0.0514723248249949</v>
       </c>
       <c r="D44">
-        <v>-0.01131092923043401</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.008680058584663116</v>
+      </c>
+      <c r="E44">
+        <v>-0.04008099219363001</v>
+      </c>
+      <c r="F44">
+        <v>0.01741177250386906</v>
+      </c>
+      <c r="G44">
+        <v>0.1211567115831505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.001676055689156778</v>
+        <v>-0.01020780437250648</v>
       </c>
       <c r="C46">
-        <v>0.007382814610053298</v>
+        <v>-0.01498508803406496</v>
       </c>
       <c r="D46">
-        <v>-0.01230819641871869</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01337538514060219</v>
+      </c>
+      <c r="E46">
+        <v>-0.006132899490173455</v>
+      </c>
+      <c r="F46">
+        <v>0.01645999107734799</v>
+      </c>
+      <c r="G46">
+        <v>0.1129812236996926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.06047578157615795</v>
+        <v>-0.08199395852497228</v>
       </c>
       <c r="C47">
-        <v>0.07137395946664725</v>
+        <v>-0.07139320270550066</v>
       </c>
       <c r="D47">
-        <v>-0.001405522032558889</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004796221455191887</v>
+      </c>
+      <c r="E47">
+        <v>0.005057512795039359</v>
+      </c>
+      <c r="F47">
+        <v>0.04384107478132653</v>
+      </c>
+      <c r="G47">
+        <v>0.09027999105807119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01133435442444546</v>
+        <v>-0.01783637342536035</v>
       </c>
       <c r="C48">
-        <v>0.008994255431044089</v>
+        <v>-0.009820836039124391</v>
       </c>
       <c r="D48">
-        <v>-0.0009127190115980648</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.003499603310232171</v>
+      </c>
+      <c r="E48">
+        <v>-0.01586023037089919</v>
+      </c>
+      <c r="F48">
+        <v>0.01996490621623647</v>
+      </c>
+      <c r="G48">
+        <v>0.108561278889777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.06884652389067364</v>
+        <v>-0.07543471144271825</v>
       </c>
       <c r="C50">
-        <v>0.07019674577756629</v>
+        <v>-0.06836853115076276</v>
       </c>
       <c r="D50">
-        <v>-0.0007853177468965393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001232558094693441</v>
+      </c>
+      <c r="E50">
+        <v>-0.001972973150242155</v>
+      </c>
+      <c r="F50">
+        <v>0.04251391433031689</v>
+      </c>
+      <c r="G50">
+        <v>0.1037280007831112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01242569801926038</v>
+        <v>-0.0115440956487696</v>
       </c>
       <c r="C51">
-        <v>0.03855838254451756</v>
+        <v>-0.03271855339350155</v>
       </c>
       <c r="D51">
-        <v>-0.01209809344472599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01227359389405535</v>
+      </c>
+      <c r="E51">
+        <v>-0.04117966826597031</v>
+      </c>
+      <c r="F51">
+        <v>-0.009741516434654278</v>
+      </c>
+      <c r="G51">
+        <v>0.1112906188713446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08769892640883906</v>
+        <v>-0.08425518679036598</v>
       </c>
       <c r="C53">
-        <v>0.08781313568413834</v>
+        <v>-0.08383200041279779</v>
       </c>
       <c r="D53">
-        <v>-0.0008763115416426949</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003856313284812228</v>
+      </c>
+      <c r="E53">
+        <v>0.0256447531347508</v>
+      </c>
+      <c r="F53">
+        <v>0.04721017839211484</v>
+      </c>
+      <c r="G53">
+        <v>0.0950092242708568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02704121809484875</v>
+        <v>-0.03190972822819429</v>
       </c>
       <c r="C54">
-        <v>0.005120691990819</v>
+        <v>-0.01536135439436863</v>
       </c>
       <c r="D54">
-        <v>0.005847109946639614</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0002364697160067335</v>
+      </c>
+      <c r="E54">
+        <v>-0.0280734892042861</v>
+      </c>
+      <c r="F54">
+        <v>0.01222523232546702</v>
+      </c>
+      <c r="G54">
+        <v>0.1135215561112562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.06427030088856153</v>
+        <v>-0.07761100666805242</v>
       </c>
       <c r="C55">
-        <v>0.07407268051923185</v>
+        <v>-0.06809330204557065</v>
       </c>
       <c r="D55">
-        <v>-0.001285757422940138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005768892822064056</v>
+      </c>
+      <c r="E55">
+        <v>0.02883581028831009</v>
+      </c>
+      <c r="F55">
+        <v>0.04817559629737589</v>
+      </c>
+      <c r="G55">
+        <v>0.07203503010545723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1330861124024678</v>
+        <v>-0.1390454492833143</v>
       </c>
       <c r="C56">
-        <v>0.1165881983887146</v>
+        <v>-0.1046222530557295</v>
       </c>
       <c r="D56">
-        <v>0.006505740881795291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01292779091956578</v>
+      </c>
+      <c r="E56">
+        <v>0.03250931415112839</v>
+      </c>
+      <c r="F56">
+        <v>0.05385358001859995</v>
+      </c>
+      <c r="G56">
+        <v>0.05647620373169847</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01024860193688191</v>
+        <v>-0.003898832491947278</v>
       </c>
       <c r="C57">
-        <v>0.005619437715867205</v>
+        <v>-0.00360164590758119</v>
       </c>
       <c r="D57">
-        <v>-0.02184330211101165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0230367149738093</v>
+      </c>
+      <c r="E57">
+        <v>-0.02567916807591434</v>
+      </c>
+      <c r="F57">
+        <v>0.0001598729935821132</v>
+      </c>
+      <c r="G57">
+        <v>0.01241409158998475</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.03481768445254679</v>
+        <v>-0.03931095422780226</v>
       </c>
       <c r="C58">
-        <v>0.0663849110407376</v>
+        <v>-0.0297922497888905</v>
       </c>
       <c r="D58">
-        <v>-0.007369904373728732</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03669040312757114</v>
+      </c>
+      <c r="E58">
+        <v>-0.752678161717195</v>
+      </c>
+      <c r="F58">
+        <v>0.5452342193642746</v>
+      </c>
+      <c r="G58">
+        <v>-0.3029506736187083</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1784423202784368</v>
+        <v>-0.1561762489630965</v>
       </c>
       <c r="C59">
-        <v>-0.1917949808544017</v>
+        <v>0.2087056767650143</v>
       </c>
       <c r="D59">
-        <v>0.06343111361260061</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01025729624502315</v>
+      </c>
+      <c r="E59">
+        <v>-0.02226857064478307</v>
+      </c>
+      <c r="F59">
+        <v>0.007876445864162659</v>
+      </c>
+      <c r="G59">
+        <v>0.03601875407368945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2923378720881497</v>
+        <v>-0.2857770365716415</v>
       </c>
       <c r="C60">
-        <v>0.1409812578392474</v>
+        <v>-0.1063410952523049</v>
       </c>
       <c r="D60">
-        <v>-0.0003917713157741272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01684392299984172</v>
+      </c>
+      <c r="E60">
+        <v>-0.1088193264262257</v>
+      </c>
+      <c r="F60">
+        <v>-0.309917864757195</v>
+      </c>
+      <c r="G60">
+        <v>-0.1678773876111928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.02419154715661971</v>
+        <v>-0.03903968924468774</v>
       </c>
       <c r="C61">
-        <v>0.06548192926360076</v>
+        <v>-0.06285319395564086</v>
       </c>
       <c r="D61">
-        <v>-0.0114134755296128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.007152098490828446</v>
+      </c>
+      <c r="E61">
+        <v>-0.03757981914340476</v>
+      </c>
+      <c r="F61">
+        <v>-0.006989256734633612</v>
+      </c>
+      <c r="G61">
+        <v>0.09031091142743362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01330094647076622</v>
+        <v>-0.01507117308582534</v>
       </c>
       <c r="C63">
-        <v>0.03270818987755389</v>
+        <v>-0.02748817374327467</v>
       </c>
       <c r="D63">
-        <v>-0.01126911215463221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.009174678972554254</v>
+      </c>
+      <c r="E63">
+        <v>-0.01154213215382882</v>
+      </c>
+      <c r="F63">
+        <v>0.0161472021758696</v>
+      </c>
+      <c r="G63">
+        <v>0.09315418898601219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04324234995559312</v>
+        <v>-0.05021005784911696</v>
       </c>
       <c r="C64">
-        <v>0.03468317584093013</v>
+        <v>-0.0470303536988887</v>
       </c>
       <c r="D64">
-        <v>-0.004881476499146875</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006277396559765041</v>
+      </c>
+      <c r="E64">
+        <v>-0.009491048588505972</v>
+      </c>
+      <c r="F64">
+        <v>-0.005197413500476208</v>
+      </c>
+      <c r="G64">
+        <v>0.0951313679610908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07302369892799772</v>
+        <v>-0.07099405013497882</v>
       </c>
       <c r="C65">
-        <v>0.08384233230482138</v>
+        <v>-0.05290188792449134</v>
       </c>
       <c r="D65">
-        <v>-0.02027110403637718</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0191130116559146</v>
+      </c>
+      <c r="E65">
+        <v>-0.06281830489331487</v>
+      </c>
+      <c r="F65">
+        <v>-0.01130088249065202</v>
+      </c>
+      <c r="G65">
+        <v>0.03918572884973022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.03940847271977502</v>
+        <v>-0.04719824792460671</v>
       </c>
       <c r="C66">
-        <v>0.1306243567152322</v>
+        <v>-0.1025788175890073</v>
       </c>
       <c r="D66">
-        <v>-0.02623996538549722</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01415397165218085</v>
+      </c>
+      <c r="E66">
+        <v>-0.06323942388673125</v>
+      </c>
+      <c r="F66">
+        <v>-0.02167644289315035</v>
+      </c>
+      <c r="G66">
+        <v>0.09662064635571331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05570742087940504</v>
+        <v>-0.05408383288187878</v>
       </c>
       <c r="C67">
-        <v>0.0314401640414993</v>
+        <v>-0.03000230652439875</v>
       </c>
       <c r="D67">
-        <v>0.007636409538337931</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.00543545496083146</v>
+      </c>
+      <c r="E67">
+        <v>-0.006560136757538387</v>
+      </c>
+      <c r="F67">
+        <v>0.008442122346371006</v>
+      </c>
+      <c r="G67">
+        <v>0.07687436520128078</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1578343570108137</v>
+        <v>-0.1568039207913583</v>
       </c>
       <c r="C68">
-        <v>-0.2515130046656321</v>
+        <v>0.269618454524429</v>
       </c>
       <c r="D68">
-        <v>0.05086568314149825</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005725016201323005</v>
+      </c>
+      <c r="E68">
+        <v>0.005163140888637329</v>
+      </c>
+      <c r="F68">
+        <v>0.0441051709736698</v>
+      </c>
+      <c r="G68">
+        <v>0.02059199477750516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.07175022021067129</v>
+        <v>-0.08384756444206977</v>
       </c>
       <c r="C69">
-        <v>0.06884840631085418</v>
+        <v>-0.07349799876225858</v>
       </c>
       <c r="D69">
-        <v>0.005057753539819406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008378376080370148</v>
+      </c>
+      <c r="E69">
+        <v>0.01205302001695368</v>
+      </c>
+      <c r="F69">
+        <v>0.02076373316125128</v>
+      </c>
+      <c r="G69">
+        <v>0.1020169716316756</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1545028997846095</v>
+        <v>-0.1424427653986872</v>
       </c>
       <c r="C71">
-        <v>-0.2005185952935828</v>
+        <v>0.2296589862399789</v>
       </c>
       <c r="D71">
-        <v>0.05308760246033493</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.00228053872243234</v>
+      </c>
+      <c r="E71">
+        <v>-0.02754398624181319</v>
+      </c>
+      <c r="F71">
+        <v>0.02945784886348414</v>
+      </c>
+      <c r="G71">
+        <v>0.063155578333493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.06224558322730203</v>
+        <v>-0.08381660345438495</v>
       </c>
       <c r="C72">
-        <v>0.07199172559846034</v>
+        <v>-0.06452307899015501</v>
       </c>
       <c r="D72">
-        <v>0.004266368778475623</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.007272137907086888</v>
+      </c>
+      <c r="E72">
+        <v>-0.003516517277063795</v>
+      </c>
+      <c r="F72">
+        <v>-0.01769819664748066</v>
+      </c>
+      <c r="G72">
+        <v>0.08859613628775909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4124309701669133</v>
+        <v>-0.3661655781803813</v>
       </c>
       <c r="C73">
-        <v>0.1840893834240745</v>
+        <v>-0.1062835729259858</v>
       </c>
       <c r="D73">
-        <v>0.004336556265844855</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.03017485995377121</v>
+      </c>
+      <c r="E73">
+        <v>-0.2481674727480911</v>
+      </c>
+      <c r="F73">
+        <v>-0.5436784464237262</v>
+      </c>
+      <c r="G73">
+        <v>-0.3315448694607862</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.09715271873128448</v>
+        <v>-0.1071371102927596</v>
       </c>
       <c r="C74">
-        <v>0.1330592388164832</v>
+        <v>-0.1055782782975856</v>
       </c>
       <c r="D74">
-        <v>-0.002952529243145388</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009372982383730457</v>
+      </c>
+      <c r="E74">
+        <v>0.005933069197257122</v>
+      </c>
+      <c r="F74">
+        <v>0.05624847702855332</v>
+      </c>
+      <c r="G74">
+        <v>0.07746445608268702</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2287518747231481</v>
+        <v>-0.2502302531686567</v>
       </c>
       <c r="C75">
-        <v>0.1746992606329117</v>
+        <v>-0.1504272641258644</v>
       </c>
       <c r="D75">
-        <v>0.01769610465829288</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03236972566798253</v>
+      </c>
+      <c r="E75">
+        <v>0.09425450675441012</v>
+      </c>
+      <c r="F75">
+        <v>0.1298693138554732</v>
+      </c>
+      <c r="G75">
+        <v>0.0216017573876287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.110099044952063</v>
+        <v>-0.1195051581499568</v>
       </c>
       <c r="C76">
-        <v>0.131456614676819</v>
+        <v>-0.1075641190399345</v>
       </c>
       <c r="D76">
-        <v>0.005862241132779188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01825623475129219</v>
+      </c>
+      <c r="E76">
+        <v>0.03741595886532761</v>
+      </c>
+      <c r="F76">
+        <v>0.07976186416573823</v>
+      </c>
+      <c r="G76">
+        <v>0.07103228037906489</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.05009687107148407</v>
+        <v>-0.06903921107113721</v>
       </c>
       <c r="C77">
-        <v>0.06306213166160428</v>
+        <v>-0.04977086309235657</v>
       </c>
       <c r="D77">
-        <v>-0.01219512125141759</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01247266086817159</v>
+      </c>
+      <c r="E77">
+        <v>-0.06938100818174758</v>
+      </c>
+      <c r="F77">
+        <v>0.005931459492441388</v>
+      </c>
+      <c r="G77">
+        <v>0.08713200293988721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04162139406258682</v>
+        <v>-0.04154773538782284</v>
       </c>
       <c r="C78">
-        <v>0.0555455504104335</v>
+        <v>-0.05268522369283262</v>
       </c>
       <c r="D78">
-        <v>-0.007316753955983329</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.009355706221450242</v>
+      </c>
+      <c r="E78">
+        <v>-0.05455608959772015</v>
+      </c>
+      <c r="F78">
+        <v>-0.02847702622146241</v>
+      </c>
+      <c r="G78">
+        <v>0.09600796486019914</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.001352171864774139</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0008783165843912051</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.00106271336017923</v>
+      </c>
+      <c r="E79">
+        <v>-0.008620226634232925</v>
+      </c>
+      <c r="F79">
+        <v>0.0009316984697253786</v>
+      </c>
+      <c r="G79">
+        <v>0.009026846301616383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04900870395865742</v>
+        <v>-0.04092202844252341</v>
       </c>
       <c r="C80">
-        <v>0.06532021143537399</v>
+        <v>-0.04848991119247979</v>
       </c>
       <c r="D80">
-        <v>-0.01619453265796455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01495822672283742</v>
+      </c>
+      <c r="E80">
+        <v>-0.04163420522655683</v>
+      </c>
+      <c r="F80">
+        <v>0.001643342544719369</v>
+      </c>
+      <c r="G80">
+        <v>0.05062022090922501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1244096348256779</v>
+        <v>-0.1397778894470213</v>
       </c>
       <c r="C81">
-        <v>0.1037657535519626</v>
+        <v>-0.09306266807541452</v>
       </c>
       <c r="D81">
-        <v>0.007158984181187349</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01590883496986383</v>
+      </c>
+      <c r="E81">
+        <v>0.05829169124121986</v>
+      </c>
+      <c r="F81">
+        <v>0.103191487509004</v>
+      </c>
+      <c r="G81">
+        <v>0.04020112015406366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.04312495221227858</v>
+        <v>-0.1670193128136435</v>
       </c>
       <c r="C82">
-        <v>0.03849461469667528</v>
+        <v>-0.1173083833391822</v>
       </c>
       <c r="D82">
-        <v>1.094398533867023e-06</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0180229186496464</v>
+      </c>
+      <c r="E82">
+        <v>0.1705487939894784</v>
+      </c>
+      <c r="F82">
+        <v>0.05447796250278505</v>
+      </c>
+      <c r="G82">
+        <v>0.02765694423330002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02321647860413839</v>
+        <v>-0.03327737232228965</v>
       </c>
       <c r="C83">
-        <v>0.01973739039534401</v>
+        <v>-0.02919265368446776</v>
       </c>
       <c r="D83">
-        <v>-0.004727751522501302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.007864956150937994</v>
+      </c>
+      <c r="E83">
+        <v>-0.04240953582200086</v>
+      </c>
+      <c r="F83">
+        <v>-0.03005233658502117</v>
+      </c>
+      <c r="G83">
+        <v>0.05091211238876385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2285275165486352</v>
+        <v>-0.2110718263716863</v>
       </c>
       <c r="C85">
-        <v>0.1801767463922165</v>
+        <v>-0.1408749586964074</v>
       </c>
       <c r="D85">
-        <v>0.006737159326235751</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01849989246591959</v>
+      </c>
+      <c r="E85">
+        <v>0.1037114153574204</v>
+      </c>
+      <c r="F85">
+        <v>0.06069486479197678</v>
+      </c>
+      <c r="G85">
+        <v>-0.01744745397714125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007229164559704292</v>
+        <v>-0.01147719384375468</v>
       </c>
       <c r="C86">
-        <v>0.02103677296917613</v>
+        <v>-0.02495433997767229</v>
       </c>
       <c r="D86">
-        <v>-0.00905746378076105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01461221735252568</v>
+      </c>
+      <c r="E86">
+        <v>-0.07666139633547427</v>
+      </c>
+      <c r="F86">
+        <v>-0.02213331499737487</v>
+      </c>
+      <c r="G86">
+        <v>0.1704377443382125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01032063650731066</v>
+        <v>-0.02102668581902671</v>
       </c>
       <c r="C87">
-        <v>0.02304021458613852</v>
+        <v>-0.01533270948675932</v>
       </c>
       <c r="D87">
-        <v>-0.0108003051424616</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01442559632309254</v>
+      </c>
+      <c r="E87">
+        <v>-0.1013994349633122</v>
+      </c>
+      <c r="F87">
+        <v>0.02610852832937703</v>
+      </c>
+      <c r="G87">
+        <v>0.1073177342159589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.08659891084633406</v>
+        <v>-0.08939305613251115</v>
       </c>
       <c r="C88">
-        <v>0.06353687646292952</v>
+        <v>-0.06572912192965506</v>
       </c>
       <c r="D88">
-        <v>-0.02256159920360264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02277354164856625</v>
+      </c>
+      <c r="E88">
+        <v>-0.005686717330761028</v>
+      </c>
+      <c r="F88">
+        <v>0.01744205125381706</v>
+      </c>
+      <c r="G88">
+        <v>0.1026636118282474</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2641045886525747</v>
+        <v>-0.2285991510000351</v>
       </c>
       <c r="C89">
-        <v>-0.3504447461713429</v>
+        <v>0.3719581510486344</v>
       </c>
       <c r="D89">
-        <v>0.08591614672066582</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0008318222409555555</v>
+      </c>
+      <c r="E89">
+        <v>0.02526188713526317</v>
+      </c>
+      <c r="F89">
+        <v>0.01421854659026074</v>
+      </c>
+      <c r="G89">
+        <v>0.07793251932953769</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2302594112831834</v>
+        <v>-0.2068832018546552</v>
       </c>
       <c r="C90">
-        <v>-0.302529083028184</v>
+        <v>0.3150350374198197</v>
       </c>
       <c r="D90">
-        <v>0.07850069283993902</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004226339123097437</v>
+      </c>
+      <c r="E90">
+        <v>0.01290627035977511</v>
+      </c>
+      <c r="F90">
+        <v>0.04929264943920541</v>
+      </c>
+      <c r="G90">
+        <v>0.04800785866743338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1800747010142102</v>
+        <v>-0.1861931981670407</v>
       </c>
       <c r="C91">
-        <v>0.1382507963613457</v>
+        <v>-0.1360509619238956</v>
       </c>
       <c r="D91">
-        <v>0.01523759786611374</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02351265637482007</v>
+      </c>
+      <c r="E91">
+        <v>0.07857689779123418</v>
+      </c>
+      <c r="F91">
+        <v>0.102020319994709</v>
+      </c>
+      <c r="G91">
+        <v>0.04348108035562862</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2193985996363187</v>
+        <v>-0.1900413470320967</v>
       </c>
       <c r="C92">
-        <v>-0.2176956083385247</v>
+        <v>0.2710987312622705</v>
       </c>
       <c r="D92">
-        <v>0.09763919133889043</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03911260770993739</v>
+      </c>
+      <c r="E92">
+        <v>-0.01758756961801308</v>
+      </c>
+      <c r="F92">
+        <v>0.05945713239360736</v>
+      </c>
+      <c r="G92">
+        <v>0.07402947906560935</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2478392609561871</v>
+        <v>-0.2292366611558607</v>
       </c>
       <c r="C93">
-        <v>-0.2834522274108132</v>
+        <v>0.3126775069533781</v>
       </c>
       <c r="D93">
-        <v>0.08324572149056891</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01012089776108753</v>
+      </c>
+      <c r="E93">
+        <v>-0.001500721597252745</v>
+      </c>
+      <c r="F93">
+        <v>0.03890494564808002</v>
+      </c>
+      <c r="G93">
+        <v>0.05718870097741638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.239299357879829</v>
+        <v>-0.3326650118438823</v>
       </c>
       <c r="C94">
-        <v>0.1787126278455645</v>
+        <v>-0.2009951326693282</v>
       </c>
       <c r="D94">
-        <v>-0.003638613233047721</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03054870032159722</v>
+      </c>
+      <c r="E94">
+        <v>0.3782246452960661</v>
+      </c>
+      <c r="F94">
+        <v>0.3993448635821018</v>
+      </c>
+      <c r="G94">
+        <v>-0.3727875785344331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06103648249035975</v>
+        <v>-0.08718939062265456</v>
       </c>
       <c r="C95">
-        <v>0.1107299702682234</v>
+        <v>-0.068956296242492</v>
       </c>
       <c r="D95">
-        <v>-0.004341341641134881</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.007262084551507278</v>
+      </c>
+      <c r="E95">
+        <v>-0.1250743422683689</v>
+      </c>
+      <c r="F95">
+        <v>-0.1483058291846427</v>
+      </c>
+      <c r="G95">
+        <v>0.04910663617306083</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1994315767658609</v>
+        <v>-0.1912113046241115</v>
       </c>
       <c r="C98">
-        <v>0.08001907060085184</v>
+        <v>-0.05097983840839379</v>
       </c>
       <c r="D98">
-        <v>0.02768571641421715</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0092645678571576</v>
+      </c>
+      <c r="E98">
+        <v>-0.1230602640257182</v>
+      </c>
+      <c r="F98">
+        <v>-0.1945076737616611</v>
+      </c>
+      <c r="G98">
+        <v>-0.05529719320677407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009140482671971446</v>
+        <v>-0.007708052297696919</v>
       </c>
       <c r="C101">
-        <v>0.02304863833646547</v>
+        <v>-0.02173504326179486</v>
       </c>
       <c r="D101">
-        <v>-0.009991608691328121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01029827315212482</v>
+      </c>
+      <c r="E101">
+        <v>-0.01308179970645257</v>
+      </c>
+      <c r="F101">
+        <v>0.0129639037989178</v>
+      </c>
+      <c r="G101">
+        <v>0.1047279879484818</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1088149601215993</v>
+        <v>-0.1207107120121874</v>
       </c>
       <c r="C102">
-        <v>0.09097267296304042</v>
+        <v>-0.0918938821026799</v>
       </c>
       <c r="D102">
-        <v>-0.006868963036485425</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0004844870449438843</v>
+      </c>
+      <c r="E102">
+        <v>0.0477478408103716</v>
+      </c>
+      <c r="F102">
+        <v>0.02226113763242233</v>
+      </c>
+      <c r="G102">
+        <v>0.02058960151390015</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.1279618446209658</v>
+        <v>-0.02044615037155984</v>
       </c>
       <c r="C104">
-        <v>-0.1860709622799244</v>
+        <v>0.02727153556809336</v>
       </c>
       <c r="D104">
-        <v>-0.9651562424761065</v>
+        <v>0.9859442581277998</v>
+      </c>
+      <c r="E104">
+        <v>0.08852246225919164</v>
+      </c>
+      <c r="F104">
+        <v>0.02314466364949064</v>
+      </c>
+      <c r="G104">
+        <v>-0.03771469452338142</v>
       </c>
     </row>
   </sheetData>
